--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCao1.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCao1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\BQP\14-09-2022\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\SourceCode\New folder\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -479,7 +479,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -524,12 +524,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -545,38 +575,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -865,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B4" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,40 +886,40 @@
       <c r="A1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16"/>
@@ -926,49 +929,49 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
@@ -979,51 +982,51 @@
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="35" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="26" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="44" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1228,6 +1231,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B11:B13"/>
@@ -1239,11 +1247,6 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCao1.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCao1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\SourceCode\New folder\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\BQP\14-09-2022\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B4" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCao1.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCao1.xlsx
@@ -16,13 +16,13 @@
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__dt__">Sheet1!$B$14:$F$14</definedName>
+    <definedName name="__dt__">Sheet1!$B$15:$G$15</definedName>
     <definedName name="I_lstGiaTri_I">Sheet1!#REF!</definedName>
-    <definedName name="KeepRows_1_">Sheet1!$B$17:$F$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$F$28</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$B$11:$F$13</definedName>
+    <definedName name="KeepRows_1_">Sheet1!$B$18:$G$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$26</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$B$12:$G$14</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
-  <si>
-    <t>CỤC TÀI CHÍNH</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>&lt;#if(&lt;#dt.depth&gt;="0";1;)&gt;</t>
   </si>
@@ -131,9 +128,6 @@
     <t>&lt;#Ten2&gt;</t>
   </si>
   <si>
-    <t>PHÒNG KHNS</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
     <t>Sử dụng kinh phí nguồn Quỹ dự trự ngoại hối</t>
   </si>
   <si>
-    <t>Quý &lt;#iQuy&gt; ( Năm &lt;#iNam&gt; )</t>
-  </si>
-  <si>
     <t>&lt;#dt.Noidungchi&gt;&lt;#AltFormat&gt;</t>
   </si>
   <si>
@@ -176,20 +167,32 @@
     <t>Kính gửi: &lt;#sKinhGui&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Phòng &lt;#sDonvi&gt; tổng hợp nhu cầu sử dụng kinh phí nguồn Quỹ dự trữ ngoại hối </t>
-  </si>
-  <si>
     <t xml:space="preserve">   &lt;#dt.depth&gt;&lt;#AltFormat&gt;</t>
   </si>
   <si>
-    <t>Hà Nội, ngày …. tháng …. năm ….</t>
+    <t>Mẫu số: 02 KHKP-NH</t>
+  </si>
+  <si>
+    <t>Hà nội, ngày …. tháng …. năm ….</t>
+  </si>
+  <si>
+    <t>Quý &lt;#iQuy&gt; ( năm &lt;#iNam&gt; )</t>
+  </si>
+  <si>
+    <t>&lt;#sDonViCapTren&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sDonViCapDuoi&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         Phòng &lt;#sDonvi&gt; tổng hợp nhu cầu sử dụng kinh phí nguồn Quỹ dự trữ ngoại hối quý &lt;#iQuy&gt; ( năm &lt;#iNam&gt; ) như sau:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +288,13 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -312,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -473,13 +483,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -500,86 +530,101 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -866,391 +911,422 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G12" sqref="G12:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-    </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-    </row>
-    <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="38"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="18" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="G37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C11:D13"/>
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="22">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B21:C25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F21:G25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="C12:E14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Times New Roman,Italic"&amp;12Tờ: &lt;#To&gt;- Trang: &amp;P/&amp;N</oddHeader>
   </headerFooter>
@@ -1265,14 +1341,14 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1306,7 +1382,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1356,10 +1432,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1392,7 +1468,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1401,79 +1477,79 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="4"/>
       <c r="H9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="H10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="M11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="N11" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCao1.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_Nhucauchiquy_BaoCao1.xlsx
@@ -16,11 +16,11 @@
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__dt__">Sheet1!$B$15:$G$15</definedName>
+    <definedName name="__dt__">Sheet1!$A$15:$F$15</definedName>
     <definedName name="I_lstGiaTri_I">Sheet1!#REF!</definedName>
-    <definedName name="KeepRows_1_">Sheet1!$B$18:$G$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$26</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$B$12:$G$14</definedName>
+    <definedName name="KeepRows_1_">Sheet1!$A$18:$F$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$26</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$A$12:$F$14</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
-  <si>
-    <t>&lt;#if(&lt;#dt.depth&gt;="0";1;)&gt;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -89,45 +86,18 @@
     <t>Expression</t>
   </si>
   <si>
-    <t>fmHeader</t>
-  </si>
-  <si>
     <t>AltFormat</t>
   </si>
   <si>
-    <t>&lt;#if(&lt;#dt.depth&gt;="0";&lt;#format cell(ItemsFormat)&gt;;)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
-  </si>
-  <si>
     <t>ItemsFormat(Font.Style)</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>FormatHeader</t>
-  </si>
-  <si>
-    <t>&lt;#Row height(Autofit; 120)&gt;&lt;#format cell(fmHeader)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#IF(&lt;#To&gt;=1;;&lt;#fRow0&gt;)&gt;</t>
-  </si>
-  <si>
     <t>&lt;#auto page breaks&gt;</t>
   </si>
   <si>
-    <t>&lt;#ThuaLenh1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ThuaLenh2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Ten1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Ten2&gt;</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -155,21 +125,9 @@
     <t>Sử dụng kinh phí nguồn Quỹ dự trự ngoại hối</t>
   </si>
   <si>
-    <t>&lt;#dt.Noidungchi&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.fChiNgoaiTeUSD&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#dt.fChiTrongNuocVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>Kính gửi: &lt;#sKinhGui&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;#dt.depth&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>Mẫu số: 02 KHKP-NH</t>
   </si>
   <si>
@@ -185,14 +143,116 @@
     <t>&lt;#sDonViCapDuoi&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">                         Phòng &lt;#sDonvi&gt; tổng hợp nhu cầu sử dụng kinh phí nguồn Quỹ dự trữ ngoại hối quý &lt;#iQuy&gt; ( năm &lt;#iNam&gt; ) như sau:</t>
+    <t xml:space="preserve">              Phòng &lt;#sDonvi&gt; tổng hợp nhu cầu sử dụng kinh phí nguồn Quỹ dự trữ ngoại hối quý &lt;#iQuy&gt; ( năm &lt;#iNam&gt; ) như sau:</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh1&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten1&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh2&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten2&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmNumberBold</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(ItemsFormat)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeft</t>
+  </si>
+  <si>
+    <t>AltFormatLeft</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeft)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellCenter</t>
+  </si>
+  <si>
+    <t>AltFormatCenter</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellCenter)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeftBold</t>
+  </si>
+  <si>
+    <t>AltFormatLeftBold</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeftBold)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellCenterBold</t>
+  </si>
+  <si>
+    <t>AltFormatCenterBold</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellCenterBold)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.fChiNgoaiTeUSD&gt;&lt;#AltFormatLeftBold&gt;;&lt;#dt.fChiNgoaiTeUSD&gt;&lt;#AltFormatLeft&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.depth&gt;&lt;#AltFormatCenterBold&gt;;&lt;#dt.depth&gt;&lt;#AltFormatCenter&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellRight</t>
+  </si>
+  <si>
+    <t>AltFormatRight</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellRight)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeftVND</t>
+  </si>
+  <si>
+    <t>AltFormatLeftVND</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeftVND)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellLeftBoldVND</t>
+  </si>
+  <si>
+    <t>AltFormatLeftBoldVND</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellLeftBoldVND)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>fmCellRightBold</t>
+  </si>
+  <si>
+    <t>AltFormatRightBold</t>
+  </si>
+  <si>
+    <t>&lt;#format cell(fmCellRightBold)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isSum&gt;="1";&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.Noidungchi&gt;&lt;#AltFormatCenterBold&gt;;&lt;#dt.Noidungchi&gt;&lt;#AltFormatCenter&gt;)&gt;;&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.Noidungchi&gt;&lt;#AltFormatRightBold&gt;;&lt;#dt.Noidungchi&gt;&lt;#AltFormatRight&gt;)&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#if(&lt;#dt.isBold&gt;="1";&lt;#dt.fChiTrongNuocVND&gt;&lt;#AltFormatLeftBoldVND&gt;;&lt;#dt.fChiTrongNuocVND&gt;&lt;#AltFormatLeftVND&gt;)&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +264,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -242,12 +303,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -295,6 +350,31 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -509,9 +589,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -525,12 +604,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,86 +613,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -625,6 +634,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -911,418 +1025,378 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G14"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F1" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="1:6" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="27" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+    </row>
+    <row r="10" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+    </row>
+    <row r="15" spans="1:6" ht="99" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B21:C25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F21:G25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="E12:E14"/>
     <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="C12:E14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="B12:D14"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A21:B25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E21:F25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -1335,221 +1409,328 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="9" t="s">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H10" s="5" t="s">
+      <c r="N10" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="H11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="I11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>24</v>
+      <c r="N11" s="27"/>
+    </row>
+    <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H12" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H14" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H15" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="H16" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="8:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="8:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="H18" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="8:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H19" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
